--- a/TC/test.xlsx
+++ b/TC/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TC/test.xlsx
+++ b/TC/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="585" windowWidth="14805" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -160,9 +160,6 @@
     <t>idInput</t>
   </si>
   <si>
-    <t>remote browser</t>
-  </si>
-  <si>
     <t>D:\viwang\workspace\PyTest01\TC\test2.xlsx</t>
   </si>
   <si>
@@ -176,6 +173,48 @@
   </si>
   <si>
     <t>CHROME</t>
+  </si>
+  <si>
+    <t>local browser</t>
+  </si>
+  <si>
+    <t>testregistrydb.cx63o2hqi2wj.us-east-1.rds.amazonaws.com</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>TestRegistry</t>
+  </si>
+  <si>
+    <t>SQLQAUser</t>
+  </si>
+  <si>
+    <t>DB server</t>
+  </si>
+  <si>
+    <t>DB user</t>
+  </si>
+  <si>
+    <t>DB pwd</t>
+  </si>
+  <si>
+    <t>abc123!</t>
+  </si>
+  <si>
+    <t>Windows authentication</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>verify DB</t>
+  </si>
+  <si>
+    <t>验证数据库数据</t>
+  </si>
+  <si>
+    <t>SELECT TOP 1 * FROM [TestRegistry].[dbo].[RawRetailerRegistry] where RetailerRegistryCode = 'vic15010406'</t>
   </si>
 </sst>
 </file>
@@ -518,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +672,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,6 +682,14 @@
       <c r="D10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -658,15 +705,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Action!$A$1:$A$7</xm:f>
+            <xm:f>location!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>location!$A$1:$A$10</xm:f>
+            <xm:f>Action!$A$1:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -676,36 +723,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
       </c>
       <c r="F1">
         <v>4444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +811,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,6 +877,14 @@
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/TC/test.xlsx
+++ b/TC/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="585" windowWidth="14805" windowHeight="7530"/>
+    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Action" sheetId="3" r:id="rId3"/>
     <sheet name="location" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -560,7 +560,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,6 +674,9 @@
       <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
@@ -690,6 +693,9 @@
       </c>
       <c r="F11" t="s">
         <v>65</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
